--- a/Inputs/Deskcount/2025/April Deskcount.xlsx
+++ b/Inputs/Deskcount/2025/April Deskcount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greystar365.sharepoint.com/sites/CorporateOfficeStrategy/Shared Documents/General/Occupancy Data/Dashboard/Inputs/Deskcount/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5736627A-148C-49B6-AF00-48E48CC28DCC}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_E35161E09DDAB7BB5CD1F6181239E262265FDBF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61ACD3B2-834E-4A88-9CC4-7366F23CFD3A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41730" yWindow="5205" windowWidth="16920" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deskcount" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>OfficeLocation</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>CP-67, Site no 252, Sector 67, 4th, 5th. 6th, and 10th Floor</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1077,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="7">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7">
         <v>37171</v>
@@ -1303,7 +1306,7 @@
         <v>45748</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1694,7 +1697,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="7">
         <v>3509</v>
@@ -1714,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="7">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="D44" s="7">
         <v>95392</v>
@@ -1763,7 +1766,7 @@
         <v>45748</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1783,7 +1786,7 @@
         <v>45748</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1803,7 +1806,7 @@
         <v>45748</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
